--- a/Apuntes/LanguajePrototype/02-Variables/Variables.xlsx
+++ b/Apuntes/LanguajePrototype/02-Variables/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Ardevol\Documents\VSC\Proyectos GitHub\Teoria\Apuntes\LanguajePrototype\02-Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D9F2B-58A3-4849-BBA3-3B2E63B2ABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C24FD-D381-4201-BF0A-4DF0CD041B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12900" yWindow="12912" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Referencias absolutas</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Estructuras</t>
+  </si>
+  <si>
+    <t>Separamos columnas y luego saltamos de fila. "Formato filas".</t>
+  </si>
+  <si>
+    <t>Saltamos de fila tras cada grupo de datos. "Formato objetos"</t>
   </si>
 </sst>
 </file>
@@ -172,12 +178,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859F894F-E46E-4DA5-9BCC-3DA47BF64B61}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,32 +476,32 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>15.1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -513,8 +519,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -524,8 +530,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="e">
@@ -536,24 +542,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="e">
         <f>5/0</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="str" cm="1">
+      <c r="B8" s="2" t="str" cm="1">
         <f t="array" ref="B8:B13">{"a";"1";"b";"2";"c";"3"}</f>
         <v>a</v>
       </c>
-      <c r="D8" s="3" t="str" cm="1">
+      <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8:I8">{"a","1","b","2","c","3"}</f>
         <v>a</v>
       </c>
@@ -572,8 +584,8 @@
       <c r="I8" t="str">
         <v>3</v>
       </c>
-      <c r="K8" s="4" t="str" cm="1">
-        <f t="array" ref="K8:M9">{"a","b","c";"1","2","3"}</f>
+      <c r="K8" s="3" t="str" cm="1">
+        <f t="array" ref="K8:M10">{"a","b","c";"1","2","3";"red","green","blue"}</f>
         <v>a</v>
       </c>
       <c r="L8" t="str">
@@ -582,15 +594,18 @@
       <c r="M8" t="str">
         <v>c</v>
       </c>
-      <c r="O8" s="3" t="str" cm="1">
-        <f t="array" ref="O8:P10">{"a","1";"b","2";"c","3"}</f>
+      <c r="P8" s="2" t="str" cm="1">
+        <f t="array" ref="P8:R10">{"a","1","red";"b","2","green";"c","3","blue"}</f>
         <v>a</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <v>1</v>
       </c>
@@ -603,35 +618,50 @@
       <c r="M9" t="str">
         <v>3</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <v>b</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" t="str">
+        <v>green</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <v>b</v>
       </c>
-      <c r="O10" t="str">
+      <c r="K10" t="str">
+        <v>red</v>
+      </c>
+      <c r="L10" t="str">
+        <v>green</v>
+      </c>
+      <c r="M10" t="str">
+        <v>blue</v>
+      </c>
+      <c r="P10" t="str">
         <v>c</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" t="str">
+        <v>blue</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <v>c</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <v>3</v>
       </c>
@@ -652,14 +682,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>

--- a/Apuntes/LanguajePrototype/02-Variables/Variables.xlsx
+++ b/Apuntes/LanguajePrototype/02-Variables/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Ardevol\Documents\VSC\Proyectos GitHub\Teoria\Apuntes\LanguajePrototype\02-Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C24FD-D381-4201-BF0A-4DF0CD041B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B75F7-F897-4A51-B28B-2DCC5C2A0868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12900" yWindow="12912" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Referencias absolutas</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Funciones Relativas</t>
   </si>
   <si>
-    <t>Las referncias absolutas se usan cuando quieres assegurarte de que nada modifique el dato a usar, mientras que las referencias absolutas se utilizan cuando deseas que tu formula se adapte al valor contenido en la celda a la que se apunta</t>
-  </si>
-  <si>
     <t>Null/Undefined</t>
   </si>
   <si>
@@ -110,10 +107,10 @@
     <t>Estructuras</t>
   </si>
   <si>
-    <t>Separamos columnas y luego saltamos de fila. "Formato filas".</t>
-  </si>
-  <si>
-    <t>Saltamos de fila tras cada grupo de datos. "Formato objetos"</t>
+    <t>Las referncias absolutas se usan cuando quieres assegurarte de que nada modifique el dato a usar</t>
+  </si>
+  <si>
+    <t>Las referencias absolutas se utilizan cuando deseas que tu formula se adapte al valor contenido en la celda a la que se apunta</t>
   </si>
 </sst>
 </file>
@@ -129,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +136,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,11 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,19 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859F894F-E46E-4DA5-9BCC-3DA47BF64B61}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,7 +491,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -510,16 +501,16 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="2" t="b">
         <f>15=15</f>
         <v>1</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E4" s="2" t="b">
         <f>15=16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,166 +521,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="e">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="e">
         <f>VLOOKUP(A6,C5,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="e">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="e">
         <f>5/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="str" cm="1">
-        <f t="array" ref="B8:B13">{"a";"1";"b";"2";"c";"3"}</f>
+        <f t="array" ref="B8">{"HolaMundo"}</f>
+        <v>HolaMundo</v>
+      </c>
+      <c r="C8" s="2" t="str" cm="1">
+        <f t="array" ref="C8:H8">{"a","1","b","2","c","3"}</f>
         <v>a</v>
       </c>
-      <c r="D8" s="2" t="str" cm="1">
-        <f t="array" ref="D8:I8">{"a","1","b","2","c","3"}</f>
-        <v>a</v>
+      <c r="D8" t="str">
+        <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>b</v>
       </c>
       <c r="F8" t="str">
-        <v>b</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
-        <v>2</v>
+        <v>c</v>
       </c>
       <c r="H8" t="str">
-        <v>c</v>
-      </c>
-      <c r="I8" t="str">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="str" cm="1">
-        <f t="array" ref="K8:M10">{"a","b","c";"1","2","3";"red","green","blue"}</f>
-        <v>a</v>
-      </c>
-      <c r="L8" t="str">
-        <v>b</v>
-      </c>
-      <c r="M8" t="str">
-        <v>c</v>
-      </c>
-      <c r="P8" s="2" t="str" cm="1">
-        <f t="array" ref="P8:R10">{"a","1","red";"b","2","green";"c","3","blue"}</f>
-        <v>a</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>1</v>
-      </c>
-      <c r="R8" t="str">
-        <v>red</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
-        <v>1</v>
-      </c>
-      <c r="K9" t="str">
-        <v>1</v>
-      </c>
-      <c r="L9" t="str">
-        <v>2</v>
-      </c>
-      <c r="M9" t="str">
-        <v>3</v>
-      </c>
-      <c r="P9" t="str">
-        <v>b</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>2</v>
-      </c>
-      <c r="R9" t="str">
-        <v>green</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <v>b</v>
-      </c>
-      <c r="K10" t="str">
-        <v>red</v>
-      </c>
-      <c r="L10" t="str">
-        <v>green</v>
-      </c>
-      <c r="M10" t="str">
-        <v>blue</v>
-      </c>
-      <c r="P10" t="str">
-        <v>c</v>
-      </c>
-      <c r="Q10" t="str">
-        <v>3</v>
-      </c>
-      <c r="R10" t="str">
-        <v>blue</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3"/>
       <c r="I1" t="s">
         <v>10</v>
       </c>
@@ -717,7 +629,11 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <f>_xlfn.LET(_xlpm.a,2,_xlpm.b,3,_xlpm.ab,_xlpm.a+_xlpm.b,_xlpm.ab)</f>
+        <f>_xlfn.LET(
+_xlpm.a,2,
+_xlpm.b,3,
+_xlpm.ab,_xlpm.a+_xlpm.b,
+_xlpm.ab)</f>
         <v>5</v>
       </c>
       <c r="L2">
@@ -729,9 +645,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
